--- a/data/Key Metrics.xlsx
+++ b/data/Key Metrics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\COVID-19 Data Visualization\COVID19 - Files\Power BI resources\CSV files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4F45FE5-B867-40B2-B9A0-DF6321A785AB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DD5EBD9-7B66-46B5-8369-CD1932BC4A21}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A53410EC-0570-4A6D-8CC6-C38FD68A563E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20700" windowHeight="11100" xr2:uid="{A53410EC-0570-4A6D-8CC6-C38FD68A563E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -426,13 +426,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2973B47C-AFF3-40C0-9DB8-6623AA76EC61}">
-  <dimension ref="A1:K121"/>
+  <dimension ref="A1:K126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B107" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G113" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I130" sqref="I130"/>
+      <selection pane="bottomRight" activeCell="J131" sqref="J131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1449,22 +1449,22 @@
         <v>43896</v>
       </c>
       <c r="B46">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C46">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D46">
         <f t="shared" si="1"/>
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E46" s="3">
         <f t="shared" si="0"/>
-        <v>0.34210526315789475</v>
+        <v>0.35897435897435898</v>
       </c>
       <c r="F46">
         <f t="shared" si="2"/>
-        <v>0.23148148148148148</v>
+        <v>0.23853211009174313</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="D47">
         <f>C47+D46</f>
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E47" s="3">
         <f>B47/C47</f>
@@ -1487,7 +1487,7 @@
       </c>
       <c r="F47">
         <f t="shared" si="2"/>
-        <v>0.36125654450261779</v>
+        <v>0.36458333333333331</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1502,7 +1502,7 @@
       </c>
       <c r="D48">
         <f t="shared" si="1"/>
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E48" s="3">
         <f t="shared" si="0"/>
@@ -1510,7 +1510,7 @@
       </c>
       <c r="F48">
         <f t="shared" si="2"/>
-        <v>0.35802469135802467</v>
+        <v>0.36065573770491804</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -1525,7 +1525,7 @@
       </c>
       <c r="D49">
         <f t="shared" si="1"/>
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E49" s="3">
         <f t="shared" si="0"/>
@@ -1533,7 +1533,7 @@
       </c>
       <c r="F49">
         <f t="shared" si="2"/>
-        <v>0.29392971246006389</v>
+        <v>0.29617834394904458</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -1548,7 +1548,7 @@
       </c>
       <c r="D50">
         <f t="shared" si="1"/>
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E50" s="3">
         <f t="shared" si="0"/>
@@ -1556,7 +1556,7 @@
       </c>
       <c r="F50">
         <f>IFERROR(SUMPRODUCT(C44:C50,E44:E50)/SUM(C44:C50),"")</f>
-        <v>0.25990099009900991</v>
+        <v>0.2617283950617284</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -1571,7 +1571,7 @@
       </c>
       <c r="D51">
         <f t="shared" si="1"/>
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="E51" s="3">
         <f t="shared" si="0"/>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F51">
         <f t="shared" si="2"/>
-        <v>0.22321428571428573</v>
+        <v>0.22459893048128343</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -1594,7 +1594,7 @@
       </c>
       <c r="D52">
         <f t="shared" si="1"/>
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="E52" s="3">
         <f t="shared" si="0"/>
@@ -1602,7 +1602,7 @@
       </c>
       <c r="F52">
         <f t="shared" si="2"/>
-        <v>0.15433403805496829</v>
+        <v>0.15522703273495247</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -1610,22 +1610,22 @@
         <v>43903</v>
       </c>
       <c r="B53">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C53">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="D53">
         <f t="shared" si="1"/>
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="E53" s="3">
         <f t="shared" si="0"/>
-        <v>6.4687168610816539E-2</v>
+        <v>6.3761955366631248E-2</v>
       </c>
       <c r="F53">
         <f t="shared" si="2"/>
-        <v>0.10480821177741761</v>
+        <v>0.10438074634937804</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -1640,7 +1640,7 @@
       </c>
       <c r="D54">
         <f t="shared" si="1"/>
-        <v>2876</v>
+        <v>2875</v>
       </c>
       <c r="E54" s="3">
         <f t="shared" si="0"/>
@@ -1648,7 +1648,7 @@
       </c>
       <c r="F54">
         <f t="shared" si="2"/>
-        <v>8.3520599250936328E-2</v>
+        <v>8.3208395802098947E-2</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -1659,19 +1659,19 @@
         <v>68</v>
       </c>
       <c r="C55">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="D55">
         <f>C55+D54</f>
-        <v>3912</v>
+        <v>3910</v>
       </c>
       <c r="E55" s="3">
         <f t="shared" si="0"/>
-        <v>6.5637065637065631E-2</v>
+        <v>6.5700483091787443E-2</v>
       </c>
       <c r="F55">
         <f t="shared" ref="F55:F60" si="3">IFERROR(SUMPRODUCT(C49:C55,E49:E55)/SUM(C49:C55),"")</f>
-        <v>7.4479737130339535E-2</v>
+        <v>7.4266922444505348E-2</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -1682,19 +1682,19 @@
         <v>150</v>
       </c>
       <c r="C56">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="D56">
         <f t="shared" si="1"/>
-        <v>6066</v>
+        <v>6062</v>
       </c>
       <c r="E56" s="3">
         <f t="shared" si="0"/>
-        <v>6.9637883008356549E-2</v>
+        <v>6.9702602230483274E-2</v>
       </c>
       <c r="F56">
         <f t="shared" si="3"/>
-        <v>7.2736787022501304E-2</v>
+        <v>7.2625698324022353E-2</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -1705,19 +1705,19 @@
         <v>249</v>
       </c>
       <c r="C57">
-        <v>2692</v>
+        <v>2686</v>
       </c>
       <c r="D57">
         <f t="shared" si="1"/>
-        <v>8758</v>
+        <v>8748</v>
       </c>
       <c r="E57" s="3">
         <f t="shared" si="0"/>
-        <v>9.2496285289747404E-2</v>
+        <v>9.2702903946388679E-2</v>
       </c>
       <c r="F57">
         <f t="shared" si="3"/>
-        <v>7.8365384615384615E-2</v>
+        <v>7.834877843302443E-2</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -1728,19 +1728,19 @@
         <v>259</v>
       </c>
       <c r="C58">
-        <v>3000</v>
+        <v>2993</v>
       </c>
       <c r="D58">
         <f t="shared" si="1"/>
-        <v>11758</v>
+        <v>11741</v>
       </c>
       <c r="E58" s="3">
         <f t="shared" si="0"/>
-        <v>8.6333333333333331E-2</v>
+        <v>8.6535248914132973E-2</v>
       </c>
       <c r="F58">
         <f t="shared" si="3"/>
-        <v>7.9759554997308454E-2</v>
+        <v>7.979870596693027E-2</v>
       </c>
       <c r="J58">
         <v>2</v>
@@ -1754,19 +1754,19 @@
         <v>278</v>
       </c>
       <c r="C59">
-        <v>2909</v>
+        <v>2905</v>
       </c>
       <c r="D59">
         <f t="shared" si="1"/>
-        <v>14667</v>
+        <v>14646</v>
       </c>
       <c r="E59" s="3">
         <f t="shared" si="0"/>
-        <v>9.5565486421450671E-2</v>
+        <v>9.5697074010327024E-2</v>
       </c>
       <c r="F59">
         <f t="shared" si="3"/>
-        <v>8.3449439026178782E-2</v>
+        <v>8.3510833639368343E-2</v>
       </c>
       <c r="J59">
         <v>1</v>
@@ -1777,22 +1777,22 @@
         <v>43910</v>
       </c>
       <c r="B60">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C60">
-        <v>3655</v>
+        <v>3651</v>
       </c>
       <c r="D60">
         <f t="shared" si="1"/>
-        <v>18322</v>
+        <v>18297</v>
       </c>
       <c r="E60" s="3">
         <f t="shared" si="0"/>
-        <v>0.10588235294117647</v>
+        <v>0.10627225417693782</v>
       </c>
       <c r="F60">
         <f t="shared" si="3"/>
-        <v>8.9546761269802433E-2</v>
+        <v>8.9739663093415009E-2</v>
       </c>
       <c r="J60">
         <v>2</v>
@@ -1810,19 +1810,19 @@
         <v>320</v>
       </c>
       <c r="C61">
-        <v>2540</v>
+        <v>2535</v>
       </c>
       <c r="D61">
         <f t="shared" si="1"/>
-        <v>20862</v>
+        <v>20832</v>
       </c>
       <c r="E61" s="3">
         <f t="shared" si="0"/>
-        <v>0.12598425196850394</v>
+        <v>0.12623274161735701</v>
       </c>
       <c r="F61">
         <f t="shared" si="2"/>
-        <v>9.5129545201823637E-2</v>
+        <v>9.5338865066547859E-2</v>
       </c>
       <c r="J61">
         <v>2</v>
@@ -1840,19 +1840,19 @@
         <v>286</v>
       </c>
       <c r="C62">
-        <v>1902</v>
+        <v>1898</v>
       </c>
       <c r="D62">
         <f t="shared" si="1"/>
-        <v>22764</v>
+        <v>22730</v>
       </c>
       <c r="E62" s="3">
         <f t="shared" si="0"/>
-        <v>0.15036803364879076</v>
+        <v>0.15068493150684931</v>
       </c>
       <c r="F62">
         <f t="shared" si="2"/>
-        <v>0.10232336091661362</v>
+        <v>0.10255047821466524</v>
       </c>
       <c r="J62">
         <v>4</v>
@@ -1870,19 +1870,19 @@
         <v>608</v>
       </c>
       <c r="C63">
-        <v>3801</v>
+        <v>3797</v>
       </c>
       <c r="D63">
         <f t="shared" si="1"/>
-        <v>26565</v>
+        <v>26527</v>
       </c>
       <c r="E63" s="3">
         <f t="shared" si="0"/>
-        <v>0.15995790581425939</v>
+        <v>0.16012641559125626</v>
       </c>
       <c r="F63">
         <f t="shared" si="2"/>
-        <v>0.11644470461973755</v>
+        <v>0.11668702663083313</v>
       </c>
       <c r="J63">
         <v>6</v>
@@ -1900,19 +1900,19 @@
         <v>717</v>
       </c>
       <c r="C64">
-        <v>4015</v>
+        <v>4007</v>
       </c>
       <c r="D64">
         <f t="shared" si="1"/>
-        <v>30580</v>
+        <v>30534</v>
       </c>
       <c r="E64" s="3">
         <f t="shared" si="0"/>
-        <v>0.17858032378580324</v>
+        <v>0.17893686049413526</v>
       </c>
       <c r="F64">
         <f t="shared" si="2"/>
-        <v>0.13083127119420768</v>
+        <v>0.13109336270999725</v>
       </c>
       <c r="J64">
         <v>9</v>
@@ -1927,22 +1927,22 @@
         <v>43915</v>
       </c>
       <c r="B65">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C65">
-        <v>4112</v>
+        <v>4111</v>
       </c>
       <c r="D65">
         <f t="shared" si="1"/>
-        <v>34692</v>
+        <v>34645</v>
       </c>
       <c r="E65" s="3">
         <f t="shared" si="0"/>
-        <v>0.18069066147859922</v>
+        <v>0.18097786426660181</v>
       </c>
       <c r="F65">
         <f t="shared" si="2"/>
-        <v>0.14559169791575827</v>
+        <v>0.14586971707998603</v>
       </c>
       <c r="J65">
         <v>7</v>
@@ -1960,19 +1960,19 @@
         <v>935</v>
       </c>
       <c r="C66">
-        <v>4435</v>
+        <v>4432</v>
       </c>
       <c r="D66">
         <f t="shared" si="1"/>
-        <v>39127</v>
+        <v>39077</v>
       </c>
       <c r="E66" s="3">
         <f t="shared" si="0"/>
-        <v>0.21082299887260428</v>
+        <v>0.21096570397111913</v>
       </c>
       <c r="F66">
         <f t="shared" si="2"/>
-        <v>0.16336876533115291</v>
+        <v>0.16364454995702182</v>
       </c>
       <c r="J66">
         <v>9</v>
@@ -1990,19 +1990,19 @@
         <v>944</v>
       </c>
       <c r="C67">
-        <v>4389</v>
+        <v>4384</v>
       </c>
       <c r="D67">
         <f t="shared" si="1"/>
-        <v>43516</v>
+        <v>43461</v>
       </c>
       <c r="E67" s="3">
         <f t="shared" ref="E67:E118" si="5">B67/C67</f>
-        <v>0.21508316245158351</v>
+        <v>0.21532846715328466</v>
       </c>
       <c r="F67">
         <f t="shared" si="2"/>
-        <v>0.18071763118202747</v>
+        <v>0.18097281831187412</v>
       </c>
       <c r="J67">
         <v>15</v>
@@ -2020,19 +2020,19 @@
         <v>655</v>
       </c>
       <c r="C68">
-        <v>2811</v>
+        <v>2810</v>
       </c>
       <c r="D68">
         <f t="shared" ref="D68:D117" si="6">C68+D67</f>
-        <v>46327</v>
+        <v>46271</v>
       </c>
       <c r="E68" s="3">
         <f t="shared" si="5"/>
-        <v>0.23301316257559587</v>
+        <v>0.23309608540925267</v>
       </c>
       <c r="F68">
         <f t="shared" si="2"/>
-        <v>0.19194973493029649</v>
+        <v>0.19218522740673769</v>
       </c>
       <c r="J68">
         <v>15</v>
@@ -2047,22 +2047,22 @@
         <v>43919</v>
       </c>
       <c r="B69">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C69">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="D69">
         <f t="shared" si="6"/>
-        <v>48411</v>
+        <v>48354</v>
       </c>
       <c r="E69" s="3">
         <f t="shared" si="5"/>
-        <v>0.25095969289827258</v>
+        <v>0.25060009601536248</v>
       </c>
       <c r="F69">
         <f t="shared" si="2"/>
-        <v>0.19982843997348618</v>
+        <v>0.20000780518264127</v>
       </c>
       <c r="J69">
         <v>25</v>
@@ -2077,22 +2077,22 @@
         <v>43920</v>
       </c>
       <c r="B70">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="C70">
-        <v>5074</v>
+        <v>5070</v>
       </c>
       <c r="D70">
         <f t="shared" si="6"/>
-        <v>53485</v>
+        <v>53424</v>
       </c>
       <c r="E70" s="3">
         <f t="shared" si="5"/>
-        <v>0.24339771383523848</v>
+        <v>0.24378698224852072</v>
       </c>
       <c r="F70">
         <f t="shared" si="2"/>
-        <v>0.21367013372956908</v>
+        <v>0.21389002490984124</v>
       </c>
       <c r="J70">
         <v>28</v>
@@ -2107,22 +2107,22 @@
         <v>43921</v>
       </c>
       <c r="B71">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="C71">
-        <v>5261</v>
+        <v>5256</v>
       </c>
       <c r="D71">
         <f t="shared" si="6"/>
-        <v>58746</v>
+        <v>58680</v>
       </c>
       <c r="E71" s="3">
         <f t="shared" si="5"/>
-        <v>0.24044858391940696</v>
+        <v>0.2408675799086758</v>
       </c>
       <c r="F71">
         <f t="shared" si="2"/>
-        <v>0.22367393311084285</v>
+        <v>0.22390392951040999</v>
       </c>
       <c r="J71">
         <v>28</v>
@@ -2140,19 +2140,19 @@
         <v>1338</v>
       </c>
       <c r="C72">
-        <v>4950</v>
+        <v>4943</v>
       </c>
       <c r="D72">
         <f t="shared" si="6"/>
-        <v>63696</v>
+        <v>63623</v>
       </c>
       <c r="E72" s="3">
         <f t="shared" si="5"/>
-        <v>0.27030303030303032</v>
+        <v>0.27068581832895006</v>
       </c>
       <c r="F72">
         <f t="shared" si="2"/>
-        <v>0.23772583091987312</v>
+        <v>0.23797363517150943</v>
       </c>
       <c r="J72">
         <v>36</v>
@@ -2170,19 +2170,19 @@
         <v>1280</v>
       </c>
       <c r="C73">
-        <v>5264</v>
+        <v>5254</v>
       </c>
       <c r="D73">
         <f t="shared" si="6"/>
-        <v>68960</v>
+        <v>68877</v>
       </c>
       <c r="E73" s="3">
         <f t="shared" si="5"/>
-        <v>0.24316109422492402</v>
+        <v>0.24362390559573657</v>
       </c>
       <c r="F73">
         <f t="shared" ref="F73:F118" si="7">IFERROR(SUMPRODUCT(C67:C73,E67:E73)/SUM(C67:C73),"")</f>
-        <v>0.24268427580196428</v>
+        <v>0.24298657718120806</v>
       </c>
       <c r="J73">
         <v>42</v>
@@ -2197,22 +2197,22 @@
         <v>43924</v>
       </c>
       <c r="B74">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="C74">
-        <v>5802</v>
+        <v>5791</v>
       </c>
       <c r="D74">
         <f t="shared" si="6"/>
-        <v>74762</v>
+        <v>74668</v>
       </c>
       <c r="E74" s="3">
         <f t="shared" si="5"/>
-        <v>0.25525680799724232</v>
+        <v>0.25591434985322054</v>
       </c>
       <c r="F74">
         <f t="shared" si="7"/>
-        <v>0.24889585866990974</v>
+        <v>0.24927099689172302</v>
       </c>
       <c r="G74">
         <v>639</v>
@@ -2221,11 +2221,11 @@
         <v>0</v>
       </c>
       <c r="J74">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K74">
         <f t="shared" si="4"/>
-        <v>38</v>
+        <v>38.333333333333336</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -2236,19 +2236,19 @@
         <v>1163</v>
       </c>
       <c r="C75">
-        <v>4017</v>
+        <v>4009</v>
       </c>
       <c r="D75">
         <f t="shared" si="6"/>
-        <v>78779</v>
+        <v>78677</v>
       </c>
       <c r="E75" s="3">
         <f t="shared" si="5"/>
-        <v>0.28951954194672641</v>
+        <v>0.29009728111748567</v>
       </c>
       <c r="F75">
         <f t="shared" si="7"/>
-        <v>0.25530013558486381</v>
+        <v>0.25572424859593901</v>
       </c>
       <c r="G75">
         <v>1370</v>
@@ -2261,7 +2261,7 @@
       </c>
       <c r="K75">
         <f t="shared" si="4"/>
-        <v>38.333333333333336</v>
+        <v>38.666666666666664</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
@@ -2269,22 +2269,22 @@
         <v>43926</v>
       </c>
       <c r="B76">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="C76">
-        <v>3454</v>
+        <v>3446</v>
       </c>
       <c r="D76">
         <f t="shared" si="6"/>
-        <v>82233</v>
+        <v>82123</v>
       </c>
       <c r="E76" s="3">
         <f t="shared" si="5"/>
-        <v>0.28228141285466124</v>
+        <v>0.2832269297736506</v>
       </c>
       <c r="F76">
         <f t="shared" si="7"/>
-        <v>0.25832298503932349</v>
+        <v>0.25884687139092066</v>
       </c>
       <c r="G76">
         <v>1632</v>
@@ -2301,7 +2301,7 @@
       </c>
       <c r="K76">
         <f t="shared" si="4"/>
-        <v>47</v>
+        <v>47.333333333333336</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -2309,22 +2309,22 @@
         <v>43927</v>
       </c>
       <c r="B77">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="C77">
-        <v>6724</v>
+        <v>6710</v>
       </c>
       <c r="D77">
         <f t="shared" si="6"/>
-        <v>88957</v>
+        <v>88833</v>
       </c>
       <c r="E77" s="3">
         <f t="shared" si="5"/>
-        <v>0.28762641284949436</v>
+        <v>0.28807749627421758</v>
       </c>
       <c r="F77">
         <f t="shared" si="7"/>
-        <v>0.26601262967974743</v>
+        <v>0.26654240447343897</v>
       </c>
       <c r="G77">
         <v>1677</v>
@@ -2349,22 +2349,22 @@
         <v>43928</v>
       </c>
       <c r="B78">
-        <v>2033</v>
+        <v>2029</v>
       </c>
       <c r="C78">
-        <v>6639</v>
+        <v>6623</v>
       </c>
       <c r="D78">
         <f t="shared" si="6"/>
-        <v>95596</v>
+        <v>95456</v>
       </c>
       <c r="E78" s="3">
         <f t="shared" si="5"/>
-        <v>0.30622081638801024</v>
+        <v>0.3063566359655745</v>
       </c>
       <c r="F78">
         <f t="shared" si="7"/>
-        <v>0.27690637720488465</v>
+        <v>0.27738198825320859</v>
       </c>
       <c r="G78">
         <v>1831</v>
@@ -2389,22 +2389,22 @@
         <v>43929</v>
       </c>
       <c r="B79">
-        <v>1870</v>
+        <v>1868</v>
       </c>
       <c r="C79">
-        <v>6863</v>
+        <v>6847</v>
       </c>
       <c r="D79">
         <f t="shared" si="6"/>
-        <v>102459</v>
+        <v>102303</v>
       </c>
       <c r="E79" s="3">
         <f t="shared" si="5"/>
-        <v>0.27247559376366021</v>
+        <v>0.27282021323207245</v>
       </c>
       <c r="F79">
         <f t="shared" si="7"/>
-        <v>0.27696514717643111</v>
+        <v>0.27743019648397105</v>
       </c>
       <c r="G79">
         <v>2119</v>
@@ -2429,22 +2429,22 @@
         <v>43930</v>
       </c>
       <c r="B80">
-        <v>1991</v>
+        <v>1989</v>
       </c>
       <c r="C80">
-        <v>6519</v>
+        <v>6506</v>
       </c>
       <c r="D80">
         <f t="shared" si="6"/>
-        <v>108978</v>
+        <v>108809</v>
       </c>
       <c r="E80" s="3">
         <f t="shared" si="5"/>
-        <v>0.30541494094186222</v>
+        <v>0.30571779895481094</v>
       </c>
       <c r="F80">
         <f t="shared" si="7"/>
-        <v>0.28604627917437153</v>
+        <v>0.28648702794751074</v>
       </c>
       <c r="G80">
         <v>2302</v>
@@ -2469,22 +2469,22 @@
         <v>43931</v>
       </c>
       <c r="B81">
-        <v>2064</v>
+        <v>2062</v>
       </c>
       <c r="C81">
-        <v>7687</v>
+        <v>7677</v>
       </c>
       <c r="D81">
         <f t="shared" si="6"/>
-        <v>116665</v>
+        <v>116486</v>
       </c>
       <c r="E81" s="3">
         <f t="shared" si="5"/>
-        <v>0.2685052686353584</v>
+        <v>0.26859450306109156</v>
       </c>
       <c r="F81">
         <f t="shared" si="7"/>
-        <v>0.28709161635205116</v>
+        <v>0.28743603233057535</v>
       </c>
       <c r="G81">
         <v>2435</v>
@@ -2497,11 +2497,11 @@
         <v>0</v>
       </c>
       <c r="J81">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K81">
         <f t="shared" si="4"/>
-        <v>106.33333333333333</v>
+        <v>106.66666666666667</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
@@ -2509,22 +2509,22 @@
         <v>43932</v>
       </c>
       <c r="B82">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="C82">
-        <v>4407</v>
+        <v>4399</v>
       </c>
       <c r="D82">
         <f t="shared" si="6"/>
-        <v>121072</v>
+        <v>120885</v>
       </c>
       <c r="E82" s="3">
         <f t="shared" si="5"/>
-        <v>0.29521216246879961</v>
+        <v>0.29552170947942713</v>
       </c>
       <c r="F82">
         <f t="shared" si="7"/>
-        <v>0.28770718558626723</v>
+        <v>0.28802596664139501</v>
       </c>
       <c r="G82">
         <v>2507</v>
@@ -2537,11 +2537,11 @@
         <v>0</v>
       </c>
       <c r="J82">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K82">
         <f t="shared" si="4"/>
-        <v>112.66666666666667</v>
+        <v>113.33333333333333</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
@@ -2549,22 +2549,22 @@
         <v>43933</v>
       </c>
       <c r="B83">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="C83">
-        <v>3130</v>
+        <v>3115</v>
       </c>
       <c r="D83">
         <f t="shared" si="6"/>
-        <v>124202</v>
+        <v>124000</v>
       </c>
       <c r="E83" s="3">
         <f t="shared" si="5"/>
-        <v>0.29776357827476041</v>
+        <v>0.29887640449438202</v>
       </c>
       <c r="F83">
         <f t="shared" si="7"/>
-        <v>0.28890371464652481</v>
+        <v>0.2892279771712396</v>
       </c>
       <c r="G83">
         <v>2554</v>
@@ -2581,7 +2581,7 @@
       </c>
       <c r="K83">
         <f t="shared" si="4"/>
-        <v>113</v>
+        <v>113.66666666666667</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
@@ -2592,19 +2592,19 @@
         <v>2002</v>
       </c>
       <c r="C84">
-        <v>6385</v>
+        <v>6376</v>
       </c>
       <c r="D84">
         <f t="shared" si="6"/>
-        <v>130587</v>
+        <v>130376</v>
       </c>
       <c r="E84" s="3">
         <f t="shared" si="5"/>
-        <v>0.31354737666405641</v>
+        <v>0.31398996235884569</v>
       </c>
       <c r="F84">
         <f t="shared" si="7"/>
-        <v>0.29288974297381698</v>
+        <v>0.29321425992345279</v>
       </c>
       <c r="G84">
         <v>3485</v>
@@ -2617,11 +2617,11 @@
         <v>22</v>
       </c>
       <c r="J84">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K84">
         <f t="shared" si="4"/>
-        <v>131</v>
+        <v>131.66666666666666</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
@@ -2632,19 +2632,19 @@
         <v>2876</v>
       </c>
       <c r="C85">
-        <v>9827</v>
+        <v>9810</v>
       </c>
       <c r="D85">
         <f t="shared" si="6"/>
-        <v>140414</v>
+        <v>140186</v>
       </c>
       <c r="E85" s="3">
         <f t="shared" si="5"/>
-        <v>0.29266307113055867</v>
+        <v>0.29317023445463813</v>
       </c>
       <c r="F85">
         <f t="shared" si="7"/>
-        <v>0.29086527734392431</v>
+        <v>0.29125866308964898</v>
       </c>
       <c r="G85">
         <v>3616</v>
@@ -2661,7 +2661,7 @@
       </c>
       <c r="K85">
         <f t="shared" si="4"/>
-        <v>131.66666666666666</v>
+        <v>132</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
@@ -2669,22 +2669,22 @@
         <v>43936</v>
       </c>
       <c r="B86">
-        <v>2602</v>
+        <v>2601</v>
       </c>
       <c r="C86">
-        <v>10060</v>
+        <v>10046</v>
       </c>
       <c r="D86">
         <f t="shared" si="6"/>
-        <v>150474</v>
+        <v>150232</v>
       </c>
       <c r="E86" s="3">
         <f t="shared" si="5"/>
-        <v>0.25864811133200794</v>
+        <v>0.25890901851483178</v>
       </c>
       <c r="F86">
         <f t="shared" si="7"/>
-        <v>0.28674372591898367</v>
+        <v>0.28711218677627326</v>
       </c>
       <c r="G86">
         <v>3637</v>
@@ -2701,7 +2701,7 @@
       </c>
       <c r="K86">
         <f t="shared" si="4"/>
-        <v>152.33333333333334</v>
+        <v>152.66666666666666</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
@@ -2712,19 +2712,19 @@
         <v>2388</v>
       </c>
       <c r="C87">
-        <v>9011</v>
+        <v>9001</v>
       </c>
       <c r="D87">
         <f t="shared" si="6"/>
-        <v>159485</v>
+        <v>159233</v>
       </c>
       <c r="E87" s="3">
         <f t="shared" si="5"/>
-        <v>0.26500943291532569</v>
+        <v>0.26530385512720811</v>
       </c>
       <c r="F87">
         <f t="shared" si="7"/>
-        <v>0.28045617439166848</v>
+        <v>0.28081865778200854</v>
       </c>
       <c r="G87">
         <v>3726</v>
@@ -2749,22 +2749,22 @@
         <v>43938</v>
       </c>
       <c r="B88">
-        <v>3009</v>
+        <v>3008</v>
       </c>
       <c r="C88">
-        <v>11275</v>
+        <v>11237</v>
       </c>
       <c r="D88">
         <f t="shared" si="6"/>
-        <v>170760</v>
+        <v>170470</v>
       </c>
       <c r="E88" s="3">
         <f t="shared" si="5"/>
-        <v>0.26687361419068734</v>
+        <v>0.26768710509922578</v>
       </c>
       <c r="F88">
         <f t="shared" si="7"/>
-        <v>0.27932341251501985</v>
+        <v>0.27982365145228216</v>
       </c>
       <c r="G88">
         <v>3756</v>
@@ -2792,19 +2792,19 @@
         <v>1486</v>
       </c>
       <c r="C89">
-        <v>6150</v>
+        <v>6136</v>
       </c>
       <c r="D89">
         <f t="shared" si="6"/>
-        <v>176910</v>
+        <v>176606</v>
       </c>
       <c r="E89" s="3">
         <f t="shared" si="5"/>
-        <v>0.24162601626016261</v>
+        <v>0.24217731421121252</v>
       </c>
       <c r="F89">
         <f t="shared" si="7"/>
-        <v>0.27391740391847846</v>
+        <v>0.2744387214874105</v>
       </c>
       <c r="G89">
         <v>3728</v>
@@ -2829,22 +2829,22 @@
         <v>43940</v>
       </c>
       <c r="B90">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="C90">
-        <v>4649</v>
+        <v>4631</v>
       </c>
       <c r="D90">
         <f t="shared" si="6"/>
-        <v>181559</v>
+        <v>181237</v>
       </c>
       <c r="E90" s="3">
         <f t="shared" si="5"/>
-        <v>0.23574962357496235</v>
+        <v>0.23580220254804579</v>
       </c>
       <c r="F90">
         <f t="shared" si="7"/>
-        <v>0.26952246456404622</v>
+        <v>0.26998270349599035</v>
       </c>
       <c r="G90">
         <v>3789</v>
@@ -2857,11 +2857,11 @@
         <v>25</v>
       </c>
       <c r="J90">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K90">
         <f t="shared" si="4"/>
-        <v>170</v>
+        <v>170.66666666666666</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
@@ -2869,22 +2869,22 @@
         <v>43941</v>
       </c>
       <c r="B91">
-        <v>2698</v>
+        <v>2699</v>
       </c>
       <c r="C91">
-        <v>10948</v>
+        <v>10924</v>
       </c>
       <c r="D91">
         <f t="shared" si="6"/>
-        <v>192507</v>
+        <v>192161</v>
       </c>
       <c r="E91" s="3">
         <f t="shared" si="5"/>
-        <v>0.2464377055169894</v>
+        <v>0.24707067008421824</v>
       </c>
       <c r="F91">
         <f t="shared" si="7"/>
-        <v>0.26090116279069769</v>
+        <v>0.26139030509023226</v>
       </c>
       <c r="G91">
         <v>3867</v>
@@ -2897,11 +2897,11 @@
         <v>25</v>
       </c>
       <c r="J91">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K91">
         <f t="shared" si="4"/>
-        <v>170.33333333333334</v>
+        <v>171.33333333333334</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
@@ -2909,22 +2909,22 @@
         <v>43942</v>
       </c>
       <c r="B92">
-        <v>2203</v>
+        <v>2202</v>
       </c>
       <c r="C92">
-        <v>9591</v>
+        <v>9570</v>
       </c>
       <c r="D92">
         <f t="shared" si="6"/>
-        <v>202098</v>
+        <v>201731</v>
       </c>
       <c r="E92" s="3">
         <f t="shared" si="5"/>
-        <v>0.22969450526535293</v>
+        <v>0.23009404388714733</v>
       </c>
       <c r="F92">
         <f t="shared" si="7"/>
-        <v>0.25098891122495298</v>
+        <v>0.25145828255747826</v>
       </c>
       <c r="G92">
         <v>3965</v>
@@ -2937,11 +2937,11 @@
         <v>25</v>
       </c>
       <c r="J92">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K92">
         <f t="shared" si="4"/>
-        <v>168</v>
+        <v>169.33333333333334</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
@@ -2949,22 +2949,22 @@
         <v>43943</v>
       </c>
       <c r="B93">
-        <v>2721</v>
+        <v>2722</v>
       </c>
       <c r="C93">
-        <v>12760</v>
+        <v>12701</v>
       </c>
       <c r="D93">
         <f t="shared" si="6"/>
-        <v>214858</v>
+        <v>214432</v>
       </c>
       <c r="E93" s="3">
         <f t="shared" si="5"/>
-        <v>0.21324451410658307</v>
+        <v>0.21431383355641287</v>
       </c>
       <c r="F93">
         <f t="shared" si="7"/>
-        <v>0.24231175447316103</v>
+        <v>0.24294392523364486</v>
       </c>
       <c r="G93">
         <v>3873</v>
@@ -2981,7 +2981,7 @@
       </c>
       <c r="K93">
         <f t="shared" si="4"/>
-        <v>161</v>
+        <v>161.66666666666666</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
@@ -2989,22 +2989,22 @@
         <v>43944</v>
       </c>
       <c r="B94">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="C94">
-        <v>10839</v>
+        <v>10806</v>
       </c>
       <c r="D94">
         <f t="shared" si="6"/>
-        <v>225697</v>
+        <v>225238</v>
       </c>
       <c r="E94" s="3">
         <f t="shared" si="5"/>
-        <v>0.22326782913552912</v>
+        <v>0.22385711641680547</v>
       </c>
       <c r="F94">
         <f t="shared" si="7"/>
-        <v>0.23610523772125899</v>
+        <v>0.23676994167108553</v>
       </c>
       <c r="G94">
         <v>3830</v>
@@ -3021,7 +3021,7 @@
       </c>
       <c r="K94">
         <f t="shared" si="4"/>
-        <v>167</v>
+        <v>167.33333333333334</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
@@ -3029,22 +3029,22 @@
         <v>43945</v>
       </c>
       <c r="B95">
-        <v>2280</v>
+        <v>2277</v>
       </c>
       <c r="C95">
-        <v>12372</v>
+        <v>12338</v>
       </c>
       <c r="D95">
         <f t="shared" si="6"/>
-        <v>238069</v>
+        <v>237576</v>
       </c>
       <c r="E95" s="3">
         <f t="shared" si="5"/>
-        <v>0.18428709990300679</v>
+        <v>0.1845517912141352</v>
       </c>
       <c r="F95">
         <f t="shared" si="7"/>
-        <v>0.2214265551412144</v>
+        <v>0.22199207224391262</v>
       </c>
       <c r="G95">
         <v>3830</v>
@@ -3069,22 +3069,22 @@
         <v>43946</v>
       </c>
       <c r="B96">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="C96">
-        <v>8426</v>
+        <v>8366</v>
       </c>
       <c r="D96">
         <f t="shared" si="6"/>
-        <v>246495</v>
+        <v>245942</v>
       </c>
       <c r="E96" s="3">
         <f t="shared" si="5"/>
-        <v>0.17813909328269642</v>
+        <v>0.17929715515180492</v>
       </c>
       <c r="F96">
         <f t="shared" si="7"/>
-        <v>0.21439965509808148</v>
+        <v>0.21505422868351218</v>
       </c>
       <c r="G96">
         <v>3854</v>
@@ -3109,22 +3109,22 @@
         <v>43947</v>
       </c>
       <c r="B97">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C97">
-        <v>4912</v>
+        <v>4904</v>
       </c>
       <c r="D97">
         <f t="shared" si="6"/>
-        <v>251407</v>
+        <v>250846</v>
       </c>
       <c r="E97" s="3">
         <f t="shared" si="5"/>
-        <v>0.17223127035830618</v>
+        <v>0.17230831973898858</v>
       </c>
       <c r="F97">
         <f t="shared" si="7"/>
-        <v>0.21001317145802315</v>
+        <v>0.21066241434297289</v>
       </c>
       <c r="G97">
         <v>3892</v>
@@ -3149,22 +3149,22 @@
         <v>43948</v>
       </c>
       <c r="B98">
-        <v>2135</v>
+        <v>2129</v>
       </c>
       <c r="C98">
-        <v>11114</v>
+        <v>11093</v>
       </c>
       <c r="D98">
         <f t="shared" si="6"/>
-        <v>262521</v>
+        <v>261939</v>
       </c>
       <c r="E98" s="3">
         <f t="shared" si="5"/>
-        <v>0.19210005398596364</v>
+        <v>0.19192283421977824</v>
       </c>
       <c r="F98">
         <f t="shared" si="7"/>
-        <v>0.20147399091610249</v>
+        <v>0.2019834331737797</v>
       </c>
       <c r="G98">
         <v>3875</v>
@@ -3189,22 +3189,22 @@
         <v>43949</v>
       </c>
       <c r="B99">
-        <v>2109</v>
+        <v>2107</v>
       </c>
       <c r="C99">
-        <v>12448</v>
+        <v>12394</v>
       </c>
       <c r="D99">
         <f t="shared" si="6"/>
-        <v>274969</v>
+        <v>274333</v>
       </c>
       <c r="E99" s="3">
         <f t="shared" si="5"/>
-        <v>0.16942480719794345</v>
+        <v>0.17000161368404065</v>
       </c>
       <c r="F99">
         <f t="shared" si="7"/>
-        <v>0.19228499677512317</v>
+        <v>0.19281837965896256</v>
       </c>
       <c r="G99">
         <v>3856</v>
@@ -3217,11 +3217,11 @@
         <v>25</v>
       </c>
       <c r="J99">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K99">
         <f t="shared" si="4"/>
-        <v>152</v>
+        <v>151.66666666666666</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
@@ -3229,22 +3229,22 @@
         <v>43950</v>
       </c>
       <c r="B100">
-        <v>2189</v>
+        <v>2181</v>
       </c>
       <c r="C100">
-        <v>12774</v>
+        <v>12701</v>
       </c>
       <c r="D100">
         <f t="shared" si="6"/>
-        <v>287743</v>
+        <v>287034</v>
       </c>
       <c r="E100" s="3">
         <f t="shared" si="5"/>
-        <v>0.1713637075309222</v>
+        <v>0.17171876230218094</v>
       </c>
       <c r="F100">
         <f t="shared" si="7"/>
-        <v>0.1849488920902792</v>
+        <v>0.18536679430318723</v>
       </c>
       <c r="G100">
         <v>3803</v>
@@ -3257,11 +3257,11 @@
         <v>25</v>
       </c>
       <c r="J100">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K100">
         <f t="shared" si="4"/>
-        <v>154.33333333333334</v>
+        <v>154.66666666666666</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
@@ -3269,22 +3269,22 @@
         <v>43951</v>
       </c>
       <c r="B101">
-        <v>2053</v>
+        <v>2054</v>
       </c>
       <c r="C101">
-        <v>13859</v>
+        <v>13784</v>
       </c>
       <c r="D101">
         <f t="shared" si="6"/>
-        <v>301602</v>
+        <v>300818</v>
       </c>
       <c r="E101" s="3">
         <f t="shared" si="5"/>
-        <v>0.14813478605960026</v>
+        <v>0.14901334881021475</v>
       </c>
       <c r="F101">
         <f t="shared" si="7"/>
-        <v>0.17275541795665636</v>
+        <v>0.1732336596983329</v>
       </c>
       <c r="G101">
         <v>3716</v>
@@ -3301,7 +3301,7 @@
       </c>
       <c r="K101">
         <f t="shared" si="4"/>
-        <v>148</v>
+        <v>148.33333333333334</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
@@ -3309,22 +3309,22 @@
         <v>43952</v>
       </c>
       <c r="B102">
-        <v>2083</v>
+        <v>2086</v>
       </c>
       <c r="C102">
-        <v>14363</v>
+        <v>14322</v>
       </c>
       <c r="D102">
         <f t="shared" si="6"/>
-        <v>315965</v>
+        <v>315140</v>
       </c>
       <c r="E102" s="3">
         <f t="shared" si="5"/>
-        <v>0.14502541251827614</v>
+        <v>0.14565004887585534</v>
       </c>
       <c r="F102">
         <f t="shared" si="7"/>
-        <v>0.16581082468932937</v>
+        <v>0.16634005466453508</v>
       </c>
       <c r="G102">
         <v>3601</v>
@@ -3341,7 +3341,7 @@
       </c>
       <c r="K102">
         <f t="shared" si="4"/>
-        <v>158.66666666666666</v>
+        <v>159.33333333333334</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
@@ -3349,22 +3349,22 @@
         <v>43953</v>
       </c>
       <c r="B103">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C103">
-        <v>7483</v>
+        <v>7444</v>
       </c>
       <c r="D103">
         <f t="shared" si="6"/>
-        <v>323448</v>
+        <v>322584</v>
       </c>
       <c r="E103" s="3">
         <f t="shared" si="5"/>
-        <v>0.13938260056127222</v>
+        <v>0.13997850617947341</v>
       </c>
       <c r="F103">
         <f t="shared" si="7"/>
-        <v>0.16189102439151171</v>
+        <v>0.16236528274314344</v>
       </c>
       <c r="G103">
         <v>3617</v>
@@ -3389,22 +3389,22 @@
         <v>43954</v>
       </c>
       <c r="B104">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C104">
-        <v>5101</v>
+        <v>5097</v>
       </c>
       <c r="D104">
         <f t="shared" si="6"/>
-        <v>328549</v>
+        <v>327681</v>
       </c>
       <c r="E104" s="3">
         <f t="shared" si="5"/>
-        <v>0.14389335424426583</v>
+        <v>0.14361389052383755</v>
       </c>
       <c r="F104">
         <f t="shared" si="7"/>
-        <v>0.16004251899095176</v>
+        <v>0.16048675733715104</v>
       </c>
       <c r="G104">
         <v>3539</v>
@@ -3429,22 +3429,22 @@
         <v>43955</v>
       </c>
       <c r="B105">
-        <v>1887</v>
+        <v>1881</v>
       </c>
       <c r="C105">
-        <v>12300</v>
+        <v>12279</v>
       </c>
       <c r="D105">
         <f t="shared" si="6"/>
-        <v>340849</v>
+        <v>339960</v>
       </c>
       <c r="E105" s="3">
         <f t="shared" si="5"/>
-        <v>0.15341463414634146</v>
+        <v>0.15318837038846811</v>
       </c>
       <c r="F105">
         <f t="shared" si="7"/>
-        <v>0.15445306914513329</v>
+        <v>0.15486856102844107</v>
       </c>
       <c r="G105">
         <v>3542</v>
@@ -3469,22 +3469,22 @@
         <v>43956</v>
       </c>
       <c r="B106">
-        <v>1755</v>
+        <v>1749</v>
       </c>
       <c r="C106">
-        <v>12767</v>
+        <v>12812</v>
       </c>
       <c r="D106">
         <f t="shared" si="6"/>
-        <v>353616</v>
+        <v>352772</v>
       </c>
       <c r="E106" s="3">
         <f t="shared" si="5"/>
-        <v>0.13746377379180699</v>
+        <v>0.13651264439587887</v>
       </c>
       <c r="F106">
         <f t="shared" si="7"/>
-        <v>0.14932546695996032</v>
+        <v>0.14947921314652149</v>
       </c>
       <c r="G106">
         <v>3562</v>
@@ -3509,22 +3509,22 @@
         <v>43957</v>
       </c>
       <c r="B107">
-        <v>1720</v>
+        <v>1725</v>
       </c>
       <c r="C107">
-        <v>13392</v>
+        <v>13497</v>
       </c>
       <c r="D107">
         <f t="shared" si="6"/>
-        <v>367008</v>
+        <v>366269</v>
       </c>
       <c r="E107" s="3">
         <f t="shared" si="5"/>
-        <v>0.12843488649940263</v>
+        <v>0.12780617915092243</v>
       </c>
       <c r="F107">
         <f t="shared" si="7"/>
-        <v>0.14224437015076011</v>
+        <v>0.14222250268189562</v>
       </c>
       <c r="G107">
         <v>3436</v>
@@ -3537,11 +3537,11 @@
         <v>21</v>
       </c>
       <c r="J107">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="K107">
         <f t="shared" si="4"/>
-        <v>133.66666666666666</v>
+        <v>134.66666666666666</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
@@ -3549,22 +3549,22 @@
         <v>43958</v>
       </c>
       <c r="B108">
-        <v>1695</v>
+        <v>1687</v>
       </c>
       <c r="C108">
-        <v>13484</v>
+        <v>13464</v>
       </c>
       <c r="D108">
         <f t="shared" si="6"/>
-        <v>380492</v>
+        <v>379733</v>
       </c>
       <c r="E108" s="3">
         <f t="shared" si="5"/>
-        <v>0.12570453871254819</v>
+        <v>0.12529708853238264</v>
       </c>
       <c r="F108">
         <f t="shared" si="7"/>
-        <v>0.13838255799214094</v>
+        <v>0.13814864094278653</v>
       </c>
       <c r="G108">
         <v>3349</v>
@@ -3581,7 +3581,7 @@
       </c>
       <c r="K108">
         <f t="shared" si="4"/>
-        <v>132.66666666666666</v>
+        <v>133.66666666666666</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
@@ -3589,22 +3589,22 @@
         <v>43959</v>
       </c>
       <c r="B109">
-        <v>1476</v>
+        <v>1472</v>
       </c>
       <c r="C109">
-        <v>13544</v>
+        <v>13539</v>
       </c>
       <c r="D109">
         <f t="shared" si="6"/>
-        <v>394036</v>
+        <v>393272</v>
       </c>
       <c r="E109" s="3">
         <f t="shared" si="5"/>
-        <v>0.10897814530419374</v>
+        <v>0.10872294851909299</v>
       </c>
       <c r="F109">
         <f t="shared" si="7"/>
-        <v>0.13205927937390324</v>
+        <v>0.13167460195566477</v>
       </c>
       <c r="G109">
         <v>3229</v>
@@ -3617,11 +3617,11 @@
         <v>19</v>
       </c>
       <c r="J109">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="K109">
         <f t="shared" si="4"/>
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
@@ -3629,22 +3629,22 @@
         <v>43960</v>
       </c>
       <c r="B110">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="C110">
-        <v>5863</v>
+        <v>5917</v>
       </c>
       <c r="D110">
         <f t="shared" si="6"/>
-        <v>399899</v>
+        <v>399189</v>
       </c>
       <c r="E110" s="3">
         <f t="shared" si="5"/>
-        <v>0.11836943544260617</v>
+        <v>0.1167821531181342</v>
       </c>
       <c r="F110">
         <f t="shared" si="7"/>
-        <v>0.13029260572131168</v>
+        <v>0.12971738137197311</v>
       </c>
       <c r="G110">
         <v>3128</v>
@@ -3657,11 +3657,11 @@
         <v>19</v>
       </c>
       <c r="J110">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K110">
         <f t="shared" si="4"/>
-        <v>113</v>
+        <v>114.33333333333333</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
@@ -3669,22 +3669,22 @@
         <v>43961</v>
       </c>
       <c r="B111">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="C111">
-        <v>3214</v>
+        <v>3201</v>
       </c>
       <c r="D111">
         <f t="shared" si="6"/>
-        <v>403113</v>
+        <v>402390</v>
       </c>
       <c r="E111" s="3">
         <f t="shared" si="5"/>
-        <v>0.12258867454884878</v>
+        <v>0.12152452358637926</v>
       </c>
       <c r="F111">
         <f t="shared" si="7"/>
-        <v>0.12903009495198756</v>
+        <v>0.12841826285989641</v>
       </c>
       <c r="G111">
         <v>3102</v>
@@ -3697,11 +3697,11 @@
         <v>18</v>
       </c>
       <c r="J111">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K111">
         <f t="shared" si="4"/>
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
@@ -3709,22 +3709,22 @@
         <v>43962</v>
       </c>
       <c r="B112">
-        <v>1329</v>
+        <v>1317</v>
       </c>
       <c r="C112">
-        <v>11891</v>
+        <v>12014</v>
       </c>
       <c r="D112">
         <f t="shared" si="6"/>
-        <v>415004</v>
+        <v>414404</v>
       </c>
       <c r="E112" s="3">
         <f t="shared" si="5"/>
-        <v>0.11176520057186107</v>
+        <v>0.10962210754120193</v>
       </c>
       <c r="F112">
         <f t="shared" si="7"/>
-        <v>0.1222169779515879</v>
+        <v>0.12129923163720381</v>
       </c>
       <c r="G112">
         <v>3127</v>
@@ -3741,7 +3741,7 @@
       </c>
       <c r="K112">
         <f t="shared" si="4"/>
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
@@ -3749,22 +3749,22 @@
         <v>43963</v>
       </c>
       <c r="B113">
-        <v>1448</v>
+        <v>1468</v>
       </c>
       <c r="C113">
-        <v>13171</v>
+        <v>13359</v>
       </c>
       <c r="D113">
         <f t="shared" si="6"/>
-        <v>428175</v>
+        <v>427763</v>
       </c>
       <c r="E113" s="3">
         <f t="shared" si="5"/>
-        <v>0.10993850125275226</v>
+        <v>0.10988846470544203</v>
       </c>
       <c r="F113">
         <f t="shared" si="7"/>
-        <v>0.11743719738730402</v>
+        <v>0.11666733341334294</v>
       </c>
       <c r="G113">
         <v>3101</v>
@@ -3777,11 +3777,11 @@
         <v>16</v>
       </c>
       <c r="J113">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K113">
         <f t="shared" si="4"/>
-        <v>117.33333333333333</v>
+        <v>118.33333333333333</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
@@ -3789,22 +3789,22 @@
         <v>43964</v>
       </c>
       <c r="B114">
-        <v>1325</v>
+        <v>1322</v>
       </c>
       <c r="C114">
-        <v>13794</v>
+        <v>13922</v>
       </c>
       <c r="D114">
         <f t="shared" si="6"/>
-        <v>441969</v>
+        <v>441685</v>
       </c>
       <c r="E114" s="3">
         <f t="shared" si="5"/>
-        <v>9.6056256343337684E-2</v>
+        <v>9.4957621031460993E-2</v>
       </c>
       <c r="F114">
         <f t="shared" si="7"/>
-        <v>0.11153799975987513</v>
+        <v>0.11066617163466638</v>
       </c>
       <c r="G114">
         <v>2859</v>
@@ -3817,11 +3817,11 @@
         <v>18</v>
       </c>
       <c r="J114">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K114">
         <f t="shared" si="4"/>
-        <v>113.66666666666667</v>
+        <v>114.33333333333333</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
@@ -3829,22 +3829,22 @@
         <v>43965</v>
       </c>
       <c r="B115">
-        <v>1301</v>
+        <v>1296</v>
       </c>
       <c r="C115">
-        <v>12929</v>
+        <v>13161</v>
       </c>
       <c r="D115">
         <f t="shared" si="6"/>
-        <v>454898</v>
+        <v>454846</v>
       </c>
       <c r="E115" s="3">
         <f t="shared" si="5"/>
-        <v>0.1006264985691082</v>
+        <v>9.8472760428538864E-2</v>
       </c>
       <c r="F115">
         <f t="shared" si="7"/>
-        <v>0.10707469827702067</v>
+        <v>0.10590709996937947</v>
       </c>
       <c r="G115">
         <v>2767</v>
@@ -3857,11 +3857,11 @@
         <v>18</v>
       </c>
       <c r="J115">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K115">
-        <f>AVERAGE(J113:J115)</f>
-        <v>103.66666666666667</v>
+        <f t="shared" ref="K115:K120" si="9">AVERAGE(J113:J115)</f>
+        <v>105</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
@@ -3869,22 +3869,22 @@
         <v>43966</v>
       </c>
       <c r="B116">
-        <v>1125</v>
+        <v>1130</v>
       </c>
       <c r="C116">
-        <v>13463</v>
+        <v>13763</v>
       </c>
       <c r="D116">
         <f t="shared" si="6"/>
-        <v>468361</v>
+        <v>468609</v>
       </c>
       <c r="E116" s="3">
         <f t="shared" si="5"/>
-        <v>8.356235608705341E-2</v>
+        <v>8.2104192399912804E-2</v>
       </c>
       <c r="F116">
         <f t="shared" si="7"/>
-        <v>0.10246888664648503</v>
+        <v>0.10105260363433638</v>
       </c>
       <c r="G116">
         <v>2692</v>
@@ -3897,11 +3897,11 @@
         <v>17</v>
       </c>
       <c r="J116" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K116">
-        <f>AVERAGE(J114:J116)</f>
-        <v>104</v>
+        <f t="shared" si="9"/>
+        <v>105.33333333333333</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
@@ -3909,39 +3909,39 @@
         <v>43967</v>
       </c>
       <c r="B117">
-        <v>656</v>
+        <v>661</v>
       </c>
       <c r="C117">
-        <v>6929</v>
+        <v>7008</v>
       </c>
       <c r="D117">
         <f t="shared" si="6"/>
-        <v>475290</v>
+        <v>475617</v>
       </c>
       <c r="E117" s="3">
         <f t="shared" si="5"/>
-        <v>9.4674556213017749E-2</v>
+        <v>9.4320776255707769E-2</v>
       </c>
       <c r="F117">
         <f t="shared" si="7"/>
-        <v>0.10051597670809513</v>
+        <v>9.9217564243470974E-2</v>
       </c>
       <c r="G117">
         <v>2597</v>
       </c>
       <c r="H117">
-        <f>AVERAGE(G115:G117)</f>
+        <f t="shared" ref="H117:H122" si="10">AVERAGE(G115:G117)</f>
         <v>2685.3333333333335</v>
       </c>
       <c r="I117">
         <v>18</v>
       </c>
       <c r="J117" s="2">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K117">
-        <f>AVERAGE(J115:J117)</f>
-        <v>95.333333333333329</v>
+        <f t="shared" si="9"/>
+        <v>97.333333333333329</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
@@ -3949,39 +3949,39 @@
         <v>43968</v>
       </c>
       <c r="B118" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C118" s="2">
-        <v>4249</v>
+        <v>4283</v>
       </c>
       <c r="D118">
-        <f>C118+D117</f>
-        <v>479539</v>
+        <f t="shared" ref="D118:D123" si="11">C118+D117</f>
+        <v>479900</v>
       </c>
       <c r="E118" s="3">
         <f t="shared" si="5"/>
-        <v>8.9903506707460584E-2</v>
+        <v>8.8956339014709312E-2</v>
       </c>
       <c r="F118" s="2">
         <f t="shared" si="7"/>
-        <v>9.8997723287886322E-2</v>
+        <v>9.7729325248355051E-2</v>
       </c>
       <c r="G118" s="2">
         <v>2533</v>
       </c>
       <c r="H118">
-        <f>AVERAGE(G116:G118)</f>
+        <f t="shared" si="10"/>
         <v>2607.3333333333335</v>
       </c>
       <c r="I118" s="2">
         <v>14</v>
       </c>
       <c r="J118" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K118">
-        <f>AVERAGE(J116:J118)</f>
-        <v>89.333333333333329</v>
+        <f t="shared" si="9"/>
+        <v>92.333333333333329</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
@@ -3989,39 +3989,39 @@
         <v>43969</v>
       </c>
       <c r="B119" s="2">
-        <v>1181</v>
+        <v>1326</v>
       </c>
       <c r="C119" s="2">
-        <v>12002</v>
+        <v>13369</v>
       </c>
       <c r="D119">
-        <f>C119+D118</f>
-        <v>491541</v>
+        <f t="shared" si="11"/>
+        <v>493269</v>
       </c>
       <c r="E119" s="3">
-        <f t="shared" ref="E119" si="9">B119/C119</f>
-        <v>9.8400266622229629E-2</v>
+        <f t="shared" ref="E119" si="12">B119/C119</f>
+        <v>9.918468097838283E-2</v>
       </c>
       <c r="F119" s="2">
-        <f t="shared" ref="F119" si="10">IFERROR(SUMPRODUCT(C113:C119,E113:E119)/SUM(C113:C119),"")</f>
-        <v>9.6920443706965259E-2</v>
+        <f t="shared" ref="F119" si="13">IFERROR(SUMPRODUCT(C113:C119,E113:E119)/SUM(C113:C119),"")</f>
+        <v>9.6164331452482085E-2</v>
       </c>
       <c r="G119" s="2">
         <v>2472</v>
       </c>
       <c r="H119">
-        <f>AVERAGE(G117:G119)</f>
+        <f t="shared" si="10"/>
         <v>2534</v>
       </c>
       <c r="I119" s="2">
         <v>13</v>
       </c>
       <c r="J119" s="2">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="K119">
-        <f>AVERAGE(J117:J119)</f>
-        <v>80.666666666666671</v>
+        <f t="shared" si="9"/>
+        <v>84.666666666666671</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
@@ -4029,32 +4029,39 @@
         <v>43970</v>
       </c>
       <c r="B120" s="2">
-        <v>665</v>
+        <v>1095</v>
       </c>
       <c r="C120" s="2">
-        <v>7705</v>
+        <v>12253</v>
       </c>
       <c r="D120">
-        <f>C120+D119</f>
-        <v>499246</v>
+        <f t="shared" si="11"/>
+        <v>505522</v>
       </c>
       <c r="E120" s="3">
-        <f t="shared" ref="E120" si="11">B120/C120</f>
-        <v>8.6307592472420508E-2</v>
+        <f t="shared" ref="E120" si="14">B120/C120</f>
+        <v>8.9365869582959279E-2</v>
       </c>
       <c r="F120" s="2">
-        <f>IFERROR(SUMPRODUCT(C114:C120,E114:E120)/SUM(C114:C120),"")</f>
-        <v>9.3357346878473635E-2</v>
+        <f t="shared" ref="F120:F125" si="15">IFERROR(SUMPRODUCT(C114:C120,E114:E120)/SUM(C114:C120),"")</f>
+        <v>9.2735246080839523E-2</v>
       </c>
       <c r="G120" s="2">
         <v>2518</v>
       </c>
       <c r="H120">
-        <f>AVERAGE(G118:G120)</f>
+        <f t="shared" si="10"/>
         <v>2507.6666666666665</v>
       </c>
       <c r="I120" s="2">
         <v>13</v>
+      </c>
+      <c r="J120" s="2">
+        <v>69</v>
+      </c>
+      <c r="K120">
+        <f t="shared" si="9"/>
+        <v>79</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
@@ -4062,32 +4069,225 @@
         <v>43971</v>
       </c>
       <c r="B121" s="2">
-        <v>295</v>
+        <v>1013</v>
       </c>
       <c r="C121" s="2">
-        <v>2196</v>
+        <v>12248</v>
       </c>
       <c r="D121">
-        <f>C121+D120</f>
-        <v>501442</v>
+        <f t="shared" si="11"/>
+        <v>517770</v>
       </c>
       <c r="E121" s="3">
         <f>B121/C121</f>
-        <v>0.1343351548269581</v>
+        <v>8.2707380796864793E-2</v>
       </c>
       <c r="F121" s="2">
-        <f>IFERROR(SUMPRODUCT(C115:C121,E115:E121)/SUM(C115:C121),"")</f>
-        <v>9.4244447060010422E-2</v>
+        <f t="shared" si="15"/>
+        <v>9.0714332654268259E-2</v>
       </c>
       <c r="G121" s="2">
         <v>2396</v>
       </c>
       <c r="H121">
-        <f>AVERAGE(G119:G121)</f>
+        <f t="shared" si="10"/>
         <v>2462</v>
       </c>
       <c r="I121" s="2">
         <v>15</v>
+      </c>
+      <c r="J121" s="2">
+        <v>77</v>
+      </c>
+      <c r="K121">
+        <f>AVERAGE(J119:J121)</f>
+        <v>78.333333333333329</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>43972</v>
+      </c>
+      <c r="B122" s="2">
+        <v>959</v>
+      </c>
+      <c r="C122" s="2">
+        <v>10630</v>
+      </c>
+      <c r="D122">
+        <f t="shared" si="11"/>
+        <v>528400</v>
+      </c>
+      <c r="E122" s="3">
+        <f>B122/C122</f>
+        <v>9.0216368767638763E-2</v>
+      </c>
+      <c r="F122" s="2">
+        <f t="shared" si="15"/>
+        <v>8.9254153411099324E-2</v>
+      </c>
+      <c r="G122" s="2">
+        <v>2323</v>
+      </c>
+      <c r="H122">
+        <f t="shared" si="10"/>
+        <v>2412.3333333333335</v>
+      </c>
+      <c r="I122" s="2">
+        <v>13</v>
+      </c>
+      <c r="J122" s="2">
+        <v>66</v>
+      </c>
+      <c r="K122">
+        <f>AVERAGE(J120:J122)</f>
+        <v>70.666666666666671</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>43973</v>
+      </c>
+      <c r="B123" s="2">
+        <v>806</v>
+      </c>
+      <c r="C123" s="2">
+        <v>8920</v>
+      </c>
+      <c r="D123">
+        <f t="shared" si="11"/>
+        <v>537320</v>
+      </c>
+      <c r="E123" s="3">
+        <f>B123/C123</f>
+        <v>9.0358744394618828E-2</v>
+      </c>
+      <c r="F123" s="2">
+        <f t="shared" si="15"/>
+        <v>9.0829707033808271E-2</v>
+      </c>
+      <c r="G123" s="2">
+        <v>2237</v>
+      </c>
+      <c r="H123">
+        <f>AVERAGE(G121:G123)</f>
+        <v>2318.6666666666665</v>
+      </c>
+      <c r="I123" s="2">
+        <v>12</v>
+      </c>
+      <c r="J123" s="2">
+        <v>62</v>
+      </c>
+      <c r="K123">
+        <f>AVERAGE(J121:J123)</f>
+        <v>68.333333333333329</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>43974</v>
+      </c>
+      <c r="B124" s="2">
+        <v>349</v>
+      </c>
+      <c r="C124" s="2">
+        <v>4031</v>
+      </c>
+      <c r="D124">
+        <f>C124+D123</f>
+        <v>541351</v>
+      </c>
+      <c r="E124" s="3">
+        <f>B124/C124</f>
+        <v>8.657901265194741E-2</v>
+      </c>
+      <c r="F124" s="2">
+        <f t="shared" si="15"/>
+        <v>9.0196853987282083E-2</v>
+      </c>
+      <c r="G124" s="2">
+        <v>2169</v>
+      </c>
+      <c r="H124">
+        <f>AVERAGE(G122:G124)</f>
+        <v>2243</v>
+      </c>
+      <c r="I124" s="2">
+        <v>9</v>
+      </c>
+      <c r="J124" s="2">
+        <v>43</v>
+      </c>
+      <c r="K124">
+        <f>AVERAGE(J122:J124)</f>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>43975</v>
+      </c>
+      <c r="B125" s="2">
+        <v>190</v>
+      </c>
+      <c r="C125" s="2">
+        <v>3042</v>
+      </c>
+      <c r="D125">
+        <f>C125+D124</f>
+        <v>544393</v>
+      </c>
+      <c r="E125" s="3">
+        <f>B125/C125</f>
+        <v>6.2458908612754764E-2</v>
+      </c>
+      <c r="F125" s="2">
+        <f t="shared" si="15"/>
+        <v>8.8970896066239744E-2</v>
+      </c>
+      <c r="G125" s="2">
+        <v>2132</v>
+      </c>
+      <c r="H125">
+        <f>AVERAGE(G123:G125)</f>
+        <v>2179.3333333333335</v>
+      </c>
+      <c r="I125" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>43976</v>
+      </c>
+      <c r="B126" s="2">
+        <v>68</v>
+      </c>
+      <c r="C126" s="2">
+        <v>1065</v>
+      </c>
+      <c r="D126">
+        <f>C126+D125</f>
+        <v>545458</v>
+      </c>
+      <c r="E126" s="3">
+        <f>B126/C126</f>
+        <v>6.3849765258215965E-2</v>
+      </c>
+      <c r="F126" s="2">
+        <f t="shared" ref="F126" si="16">IFERROR(SUMPRODUCT(C120:C126,E120:E126)/SUM(C120:C126),"")</f>
+        <v>8.5841844066757364E-2</v>
+      </c>
+      <c r="G126" s="2">
+        <v>2108</v>
+      </c>
+      <c r="H126">
+        <f>AVERAGE(G124:G126)</f>
+        <v>2136.3333333333335</v>
+      </c>
+      <c r="I126" s="2">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
